--- a/Animation-ResNet/meeting ppt/EDSR_onepiece.xlsx
+++ b/Animation-ResNet/meeting ppt/EDSR_onepiece.xlsx
@@ -436,7 +436,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>32.539027363022257</c:v>
+                  <c:v>32.423000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>32.538441247279358</c:v>
@@ -1518,21 +1518,80 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>183777</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="群組 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11795630" y="10831927"/>
+          <a:ext cx="7184571" cy="4047564"/>
+          <a:chOff x="11795630" y="10831927"/>
+          <a:chExt cx="7184571" cy="4047564"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="2" name="圖表 1"/>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="11795630" y="10831927"/>
+          <a:ext cx="7184571" cy="4047564"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="橢圓 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13661571" y="12322629"/>
+            <a:ext cx="195943" cy="206828"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1803,8 +1862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE343"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3711,7 +3770,7 @@
         <v>32.237000000000002</v>
       </c>
       <c r="E37" s="12">
-        <f t="shared" ref="D37:K37" si="0">(E21+E22+E23+E24+E25+E26+E27+E28+E29+E30+E31+E32+E33+E34+E35+E36)/16</f>
+        <f t="shared" ref="E37:K37" si="0">(E21+E22+E23+E24+E25+E26+E27+E28+E29+E30+E31+E32+E33+E34+E35+E36)/16</f>
         <v>32.482448893126659</v>
       </c>
       <c r="F37" s="12">
@@ -3731,8 +3790,7 @@
         <v>32.906369038669546</v>
       </c>
       <c r="J37" s="12">
-        <f t="shared" si="0"/>
-        <v>32.539027363022257</v>
+        <v>32.423000000000002</v>
       </c>
       <c r="K37" s="12">
         <f t="shared" si="0"/>
